--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/92.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/92.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03258712048379355</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.920593620374559</v>
+        <v>-1.920437005471989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04809033334369949</v>
+        <v>0.04864124003615473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01453854175405403</v>
+        <v>0.01510361461860098</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03496249344357744</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.782548208388685</v>
+        <v>-1.781897351482028</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001612468449612329</v>
+        <v>-0.0009828608010920539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01650291761743729</v>
+        <v>0.01706799048198423</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04515260281487923</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.751776134567257</v>
+        <v>-1.750880517687237</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04649877173174404</v>
+        <v>-0.04607850862635676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01267018105707011</v>
+        <v>0.01323053186425316</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05927123221151682</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.775371468205115</v>
+        <v>-1.774281459963614</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08270435955990246</v>
+        <v>-0.08239270377388493</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03696044413698232</v>
+        <v>0.03763727235914162</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06946819306764988</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.742494930818507</v>
+        <v>-1.741533205135393</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1427028204256421</v>
+        <v>-0.1425595846856037</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0437759469322143</v>
+        <v>0.04463378735332318</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06820086007321491</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.599511033839553</v>
+        <v>-1.598389545215626</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2005700594011406</v>
+        <v>-0.2008281985370339</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03878001024120592</v>
+        <v>0.03950563305612554</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05368786343880613</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.46005057866363</v>
+        <v>-1.459035336330391</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2979923988949253</v>
+        <v>-0.2986896893656615</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06632849290221056</v>
+        <v>0.0670981882525266</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02793750327112557</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.239980669238096</v>
+        <v>-1.239011860468935</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3863908867662932</v>
+        <v>-0.3876815824457598</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09131132439549508</v>
+        <v>0.09214398051066314</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.00514422502597455</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9454407671455831</v>
+        <v>-0.9450488363843792</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4318957795630962</v>
+        <v>-0.4335406295448554</v>
       </c>
       <c r="G10" t="n">
-        <v>0.133246341825188</v>
+        <v>0.134162420953785</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04398670007344944</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7466334950201391</v>
+        <v>-0.7466523832495947</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5378587468090584</v>
+        <v>-0.5400308931964534</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1325034047999341</v>
+        <v>0.1334053177564394</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.09198200904862164</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5241285780139525</v>
+        <v>-0.5245976357121002</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6633914937901522</v>
+        <v>-0.6659886253402983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1452923101605022</v>
+        <v>0.1461847790022797</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1557762552391825</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2788759366667285</v>
+        <v>-0.2795968374242842</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7987146397057362</v>
+        <v>-0.8013338075235806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2088323140491683</v>
+        <v>0.2097295049483097</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2393103224702703</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05512597053559311</v>
+        <v>-0.0560278834920984</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9145443458135719</v>
+        <v>-0.9173445258303659</v>
       </c>
       <c r="G14" t="n">
-        <v>0.273102662810118</v>
+        <v>0.2740628144741114</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.341798676197797</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2943204405652513</v>
+        <v>0.2934248236852312</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.053562501616409</v>
+        <v>-1.056269814505046</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3072824880291625</v>
+        <v>0.3080789417045406</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.459665420486009</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5597315447989732</v>
+        <v>0.5587871333261929</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.196512557184256</v>
+        <v>-1.198824004263886</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3301152094027502</v>
+        <v>0.3306425058083859</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.589835755580295</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8101359507302145</v>
+        <v>0.8092482039458009</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.327737744317534</v>
+        <v>-1.32975406281192</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3588080039649404</v>
+        <v>0.359135399942171</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7309285120379843</v>
       </c>
       <c r="E18" t="n">
-        <v>1.048832802437221</v>
+        <v>1.047751451300888</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.525747775758039</v>
+        <v>-1.527631876646236</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4079976755247083</v>
+        <v>0.408200723991356</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8769691656232982</v>
       </c>
       <c r="E19" t="n">
-        <v>1.321437174055287</v>
+        <v>1.320689514972669</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.729343214050479</v>
+        <v>-1.731097458361169</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4430699695855302</v>
+        <v>0.4432179273829324</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.014220477789236</v>
       </c>
       <c r="E20" t="n">
-        <v>1.616126607964323</v>
+        <v>1.615430891512708</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.929645017331598</v>
+        <v>-1.931106494085726</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5086058297200056</v>
+        <v>0.5087821198615913</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.130206707243009</v>
       </c>
       <c r="E21" t="n">
-        <v>1.819559135277709</v>
+        <v>1.819285255950603</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.156532790581047</v>
+        <v>-2.157801449992815</v>
       </c>
       <c r="G21" t="n">
-        <v>0.582710649950842</v>
+        <v>0.5829011062645194</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.218191700339506</v>
       </c>
       <c r="E22" t="n">
-        <v>1.954879133155051</v>
+        <v>1.954794136122501</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.324887514766687</v>
+        <v>-2.32606566807898</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6448859792613405</v>
+        <v>0.6450890277279883</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.27636732616986</v>
       </c>
       <c r="E23" t="n">
-        <v>2.155213990837717</v>
+        <v>2.15561693973277</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.476533238970159</v>
+        <v>-2.477651579555843</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7024462845081854</v>
+        <v>0.7026713692425313</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.305693754649355</v>
       </c>
       <c r="E24" t="n">
-        <v>2.264279349771763</v>
+        <v>2.265170244594419</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.71814045203245</v>
+        <v>-2.719417768549386</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7491474318371767</v>
+        <v>0.749263909252153</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.307465141072275</v>
       </c>
       <c r="E25" t="n">
-        <v>2.412175760428297</v>
+        <v>2.413622284000772</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.878575499009266</v>
+        <v>-2.879949617702161</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7929555320212175</v>
+        <v>0.7933458887633</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.284021503791895</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5631808588494</v>
+        <v>2.565009869068351</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.049927155601861</v>
+        <v>-3.051269793912331</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8229941129321198</v>
+        <v>0.823319934890229</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.23978260665</v>
       </c>
       <c r="E27" t="n">
-        <v>2.616906853516756</v>
+        <v>2.618986132775995</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.173316088539744</v>
+        <v>-3.175138015672649</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8648142269659578</v>
+        <v>0.8651526410770374</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.179859131136165</v>
       </c>
       <c r="E28" t="n">
-        <v>2.631694763161376</v>
+        <v>2.633748858114674</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.262361498269966</v>
+        <v>-3.264456517720418</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913962618864838</v>
+        <v>0.8919392984833325</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.108680813949923</v>
       </c>
       <c r="E29" t="n">
-        <v>2.64128368764834</v>
+        <v>2.643539257049164</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.35695060334541</v>
+        <v>-3.359551669943359</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8920730901086431</v>
+        <v>0.8926712173747373</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.031191330926296</v>
       </c>
       <c r="E30" t="n">
-        <v>2.640076414982302</v>
+        <v>2.642549199021866</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.394886825197438</v>
+        <v>-3.397971115665627</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9016084979454827</v>
+        <v>0.902102739949571</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9518935187676227</v>
       </c>
       <c r="E31" t="n">
-        <v>2.6303442547553</v>
+        <v>2.632766670182982</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.476913683665781</v>
+        <v>-3.480519761472681</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8667140680453677</v>
+        <v>0.8673043252158554</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8743260849635571</v>
       </c>
       <c r="E32" t="n">
-        <v>2.593441376456405</v>
+        <v>2.595752036526475</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.524296381274296</v>
+        <v>-3.528491929242123</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8636526008544378</v>
+        <v>0.8643262810383545</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8020458770143226</v>
       </c>
       <c r="E33" t="n">
-        <v>2.525243849987811</v>
+        <v>2.527404978241357</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.565328698737923</v>
+        <v>-3.569961037011911</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8778423832329636</v>
+        <v>0.8787238339408919</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7374162887343647</v>
       </c>
       <c r="E34" t="n">
-        <v>2.467378185031433</v>
+        <v>2.469462186348036</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.58530457540635</v>
+        <v>-3.589916451431761</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8735405889744488</v>
+        <v>0.8745542572885664</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6825632797694201</v>
       </c>
       <c r="E35" t="n">
-        <v>2.407085382590011</v>
+        <v>2.408931707019296</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.557852894921305</v>
+        <v>-3.562672541470728</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8262224261499075</v>
+        <v>0.8273147954200902</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6382292355873908</v>
       </c>
       <c r="E36" t="n">
-        <v>2.322599906254196</v>
+        <v>2.324543819869003</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.539349513140855</v>
+        <v>-3.54418411287193</v>
       </c>
       <c r="G36" t="n">
-        <v>0.818451493748046</v>
+        <v>0.819628860050779</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.602307871004091</v>
       </c>
       <c r="E37" t="n">
-        <v>2.171519254915271</v>
+        <v>2.173107440208664</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.484881368457805</v>
+        <v>-3.489720690246244</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7728206794215391</v>
+        <v>0.7739697133800886</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.571346530203122</v>
       </c>
       <c r="E38" t="n">
-        <v>2.087834954312199</v>
+        <v>2.089523876829354</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.442760616771799</v>
+        <v>-3.447549569948356</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7636992386136016</v>
+        <v>0.7646688343923228</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5421705077484935</v>
       </c>
       <c r="E39" t="n">
-        <v>2.003500583812029</v>
+        <v>2.005062010780359</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.332730384116395</v>
+        <v>-3.337362722390383</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7094128931390622</v>
+        <v>0.710322676191174</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5122002151246497</v>
       </c>
       <c r="E40" t="n">
-        <v>1.879000393374509</v>
+        <v>1.880494137520623</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.250334418164108</v>
+        <v>-3.254857362109165</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6757713824595025</v>
+        <v>0.6766512591483097</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4798090058358181</v>
       </c>
       <c r="E41" t="n">
-        <v>1.768974882776469</v>
+        <v>1.770186877499871</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.192621433062497</v>
+        <v>-3.197096369424354</v>
       </c>
       <c r="G41" t="n">
-        <v>0.629257543405946</v>
+        <v>0.630011498565049</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4451832004643026</v>
       </c>
       <c r="E42" t="n">
-        <v>1.633613960401974</v>
+        <v>1.634501707186388</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.131383432138733</v>
+        <v>-3.135715919770113</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5825658401916823</v>
+        <v>0.5832410943947204</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4091122377530079</v>
       </c>
       <c r="E43" t="n">
-        <v>1.511019907120349</v>
+        <v>1.511734511801419</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.026304276629381</v>
+        <v>-3.030359736895412</v>
       </c>
       <c r="G43" t="n">
-        <v>0.528128388881498</v>
+        <v>0.5287469783961692</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3725738717041693</v>
       </c>
       <c r="E44" t="n">
-        <v>1.319263453648771</v>
+        <v>1.31972149321307</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.972013209097478</v>
+        <v>-2.975964784101503</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4822551756103108</v>
+        <v>0.4828092303410086</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3373306732054704</v>
       </c>
       <c r="E45" t="n">
-        <v>1.137319435379382</v>
+        <v>1.137601184802095</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.857952700481984</v>
+        <v>-2.86171224515321</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4359050345453694</v>
+        <v>0.4363709442052744</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3047059143237305</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9632785671180436</v>
+        <v>0.9631290353015201</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.69853525686709</v>
+        <v>-2.70196032247504</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3792340501020595</v>
+        <v>0.3797156999531775</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.275463172107561</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8884859005311988</v>
+        <v>0.8882135952232137</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.654128242407394</v>
+        <v>-2.65756039110139</v>
       </c>
       <c r="G47" t="n">
-        <v>0.343399930786528</v>
+        <v>0.3438233419301579</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2499906097864006</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7430638479333496</v>
+        <v>0.7424783128202257</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.577405828377834</v>
+        <v>-2.58070497245608</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3513314131387622</v>
+        <v>0.3516776973454483</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2279852671566645</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6071032242736387</v>
+        <v>0.6062941784452902</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.519766035165364</v>
+        <v>-2.523048652042836</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3073312826219228</v>
+        <v>0.3076445124270616</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.208687399736197</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4741615692885827</v>
+        <v>0.4730959583434621</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.460223252835241</v>
+        <v>-2.463516100837002</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2608709602184904</v>
+        <v>0.2610220660541352</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1918118406329188</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3604371137554866</v>
+        <v>0.3592581734336325</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.431732719730137</v>
+        <v>-2.434993300339912</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2441139526531232</v>
+        <v>0.244254040354919</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1766433530217907</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2037765646315505</v>
+        <v>0.2024465184740514</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.435788179996169</v>
+        <v>-2.43911723043772</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2293181729128968</v>
+        <v>0.2294645566911777</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1620838542313656</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1458841413501112</v>
+        <v>0.1442566055786863</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.346734113160779</v>
+        <v>-2.349804237456876</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1922752069122064</v>
+        <v>0.1924074245183957</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1470776324617823</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04288977416692202</v>
+        <v>0.0412590903572545</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.304256846143798</v>
+        <v>-2.307213641063162</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1692693434352755</v>
+        <v>0.169392116926737</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1304668893841918</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.04528520298922122</v>
+        <v>-0.04700245785056027</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.262903428779426</v>
+        <v>-2.265659536260824</v>
       </c>
       <c r="G55" t="n">
-        <v>0.152195958026527</v>
+        <v>0.1522636408487429</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1116799390638574</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08512520096846292</v>
+        <v>-0.0869069906137753</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.236522081296866</v>
+        <v>-2.23910425966536</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1236259369557982</v>
+        <v>0.1236652874338307</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09107466185704204</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1562204966393724</v>
+        <v>-0.1581392259482379</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.210895475982969</v>
+        <v>-2.213365898993851</v>
       </c>
       <c r="G57" t="n">
-        <v>0.122944386676275</v>
+        <v>0.1230766042824643</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0685183625218303</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.233111330714911</v>
+        <v>-0.2349970056222292</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.193820516555099</v>
+        <v>-2.196202007485627</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1091780154413792</v>
+        <v>0.1093149551049323</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04284492869215682</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3071343019514398</v>
+        <v>-0.3089145175776308</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.187666888800374</v>
+        <v>-2.189980696908687</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08870474873062113</v>
+        <v>0.0888590026045086</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01324451907620717</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3481532402525356</v>
+        <v>-0.3500011387009427</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.199047834056939</v>
+        <v>-2.201424602930103</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06157495515588248</v>
+        <v>0.06167411836052442</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.02089570883336926</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3747289790965765</v>
+        <v>-0.3765359530478297</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.146595220858715</v>
+        <v>-2.148690240309166</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0231846287873587</v>
+        <v>0.0231673145770244</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.05930610129874614</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4168497307825829</v>
+        <v>-0.4187165174604455</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.128285443430185</v>
+        <v>-2.130259263408296</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05873542466105604</v>
+        <v>0.05873699868017734</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1008046573675045</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4272996437288981</v>
+        <v>-0.429136524043456</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.153163602651903</v>
+        <v>-2.15500048296646</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02738096376474634</v>
+        <v>0.02732587309550082</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.144933403380441</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4156660684033647</v>
+        <v>-0.4176855349359935</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.122276625434619</v>
+        <v>-2.123819951183055</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009981756397888538</v>
+        <v>0.009874723097640091</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1920188844960992</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4690693891508545</v>
+        <v>-0.4710321909951165</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.13224882357762</v>
+        <v>-2.133781131192206</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0098936113270957</v>
+        <v>0.009822780466637168</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2419384449440909</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4885903742932256</v>
+        <v>-0.4905767864243071</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.120489326722382</v>
+        <v>-2.121969691705965</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02269015850294984</v>
+        <v>-0.02271062075152675</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2947105076340861</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5098663907558471</v>
+        <v>-0.5117111411660115</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.152578854548339</v>
+        <v>-2.154132411421063</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02245405563475474</v>
+        <v>-0.02244146348178433</v>
       </c>
     </row>
     <row r="68">
@@ -1997,10 +1997,10 @@
         <v>-0.3500394331348567</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4560821573810025</v>
+        <v>-0.4579977386516255</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.184564497112291</v>
+        <v>-2.186072407430497</v>
       </c>
       <c r="G68" t="n">
         <v>-0.0445753203655146</v>
@@ -2020,13 +2020,13 @@
         <v>-0.4065855331938408</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4191682609482588</v>
+        <v>-0.4209453285362073</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.210512989336493</v>
+        <v>-2.212109044725492</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07404882841186998</v>
+        <v>-0.07408503085165989</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4630419995388182</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3400250055101389</v>
+        <v>-0.3416619853962916</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.219648596316522</v>
+        <v>-2.221257243858492</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08215030482920462</v>
+        <v>-0.08220224746020754</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5180119765180904</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.286243920173537</v>
+        <v>-0.2879045103465092</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.245307469022406</v>
+        <v>-2.246928708717345</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08770187027003215</v>
+        <v>-0.087821495723251</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5694833343597301</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2264374896405961</v>
+        <v>-0.2281704846931481</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.297984379945415</v>
+        <v>-2.299668580405207</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07268572785282358</v>
+        <v>-0.07286201799440926</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6155734547898668</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.09877352076926119</v>
+        <v>-0.1004640173055381</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.307473354218176</v>
+        <v>-2.30914732355368</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08823703677127438</v>
+        <v>-0.08840545681725355</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6540309209003476</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.02505905728050737</v>
+        <v>-0.0267086293196305</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.35153959353811</v>
+        <v>-2.353187591558112</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07650272422197775</v>
+        <v>-0.07669632857389774</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6822411035573509</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07034696371889121</v>
+        <v>0.06856832211182144</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.382343147741965</v>
+        <v>-2.384041514373848</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08177726229745635</v>
+        <v>-0.08201966124213667</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6984320323904029</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2070458023464921</v>
+        <v>0.2052718827967862</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.406036857574904</v>
+        <v>-2.407697447747876</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09274817557292216</v>
+        <v>-0.09306297939718229</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7020639171817665</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3508686515170998</v>
+        <v>0.3490758437379383</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.34391583192409</v>
+        <v>-2.345357633439202</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1013423199752239</v>
+        <v>-0.1018098036542502</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6933035666365015</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5342560453207216</v>
+        <v>0.5324254610826489</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.338098257251763</v>
+        <v>-2.339396823026836</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07653263058528247</v>
+        <v>-0.07691354321263723</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6731399817727316</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6545819370485527</v>
+        <v>0.6527245944854179</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.270215534607428</v>
+        <v>-2.271404706053571</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06569708295424853</v>
+        <v>-0.06627002591440198</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6424639190438857</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8099911409710548</v>
+        <v>0.8081794449624378</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.249030811253842</v>
+        <v>-2.250041331529717</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04510891284763553</v>
+        <v>-0.04566768963569728</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6026761161316886</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9323002967917248</v>
+        <v>0.9303658272916462</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.209345067148488</v>
+        <v>-2.210268229363131</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01796495310080518</v>
+        <v>-0.01858511663459764</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5557930501991186</v>
       </c>
       <c r="E82" t="n">
-        <v>1.08459136883493</v>
+        <v>1.082732452252674</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.153570486594759</v>
+        <v>-2.154432262063671</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02263191979546171</v>
+        <v>-0.02330402596025711</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.503941077752675</v>
       </c>
       <c r="E83" t="n">
-        <v>1.153445261277108</v>
+        <v>1.151558012350668</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.096143185963664</v>
+        <v>-2.096827097271869</v>
       </c>
       <c r="G83" t="n">
-        <v>0.003750214696659114</v>
+        <v>0.003000981594919987</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4489644661735049</v>
       </c>
       <c r="E84" t="n">
-        <v>1.289442087376608</v>
+        <v>1.287546968354562</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.014354791392198</v>
+        <v>-2.01496236277302</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03266651997407405</v>
+        <v>0.03192043491057752</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3920181284786775</v>
       </c>
       <c r="E85" t="n">
-        <v>1.299295447075951</v>
+        <v>1.297441252551058</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.857674567029246</v>
+        <v>-1.858049970589676</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04829495582946858</v>
+        <v>0.04755516684245725</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3337290266052483</v>
       </c>
       <c r="E86" t="n">
-        <v>1.343020124246562</v>
+        <v>1.341091950822969</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.762434605047144</v>
+        <v>-1.762663624829294</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06807722814597562</v>
+        <v>0.06735475336929861</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2750216821809727</v>
       </c>
       <c r="E87" t="n">
-        <v>1.351247522193601</v>
+        <v>1.34912889245633</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571570620417344</v>
+        <v>-1.571657191469016</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06212743586745902</v>
+        <v>0.0613907949186903</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2176830006162636</v>
       </c>
       <c r="E88" t="n">
-        <v>1.342928831137527</v>
+        <v>1.340654373507247</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424305391428452</v>
+        <v>-1.424323492648347</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09052431483484473</v>
+        <v>0.0897577675227713</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1636729935138448</v>
       </c>
       <c r="E89" t="n">
-        <v>1.35405399828688</v>
+        <v>1.351735468121204</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231327499118745</v>
+        <v>-1.231426662323387</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08450841375323351</v>
+        <v>0.08377649486182868</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1157149029844365</v>
       </c>
       <c r="E90" t="n">
-        <v>1.294356175073309</v>
+        <v>1.292086439500393</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065036314001131</v>
+        <v>-1.065053628211465</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09392734417509682</v>
+        <v>0.09318283313072159</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07715818772234261</v>
       </c>
       <c r="E91" t="n">
-        <v>1.233410154696546</v>
+        <v>1.231212824003211</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8747460593410447</v>
+        <v>-0.8748436485265653</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06157652917500378</v>
+        <v>0.06083044411150726</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05038807633572451</v>
       </c>
       <c r="E92" t="n">
-        <v>1.218649003376989</v>
+        <v>1.216498893257292</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7103004116431553</v>
+        <v>-0.7105003120715605</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0437649287983652</v>
+        <v>0.04297162316122966</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03612068368748456</v>
       </c>
       <c r="E93" t="n">
-        <v>1.199298012299718</v>
+        <v>1.19724391734642</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.534553306654327</v>
+        <v>-0.5346870982796376</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02651525324803096</v>
+        <v>0.02586518335093378</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03462192528051691</v>
       </c>
       <c r="E94" t="n">
-        <v>1.167007010026234</v>
+        <v>1.164979673397999</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4042859101563608</v>
+        <v>-0.4046872850322925</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006023098307817307</v>
+        <v>0.005281735301684683</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04401890499884879</v>
       </c>
       <c r="E95" t="n">
-        <v>1.136370301849238</v>
+        <v>1.134604252395138</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2686684226650935</v>
+        <v>-0.2690729455792678</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00101771750208112</v>
+        <v>0.000358203490256132</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05972866872460923</v>
       </c>
       <c r="E96" t="n">
-        <v>1.104589281771055</v>
+        <v>1.102747679399134</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1610968078771619</v>
+        <v>-0.1615926239003716</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03395856139234146</v>
+        <v>-0.03458659502174044</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07610954895909187</v>
       </c>
       <c r="E97" t="n">
-        <v>1.051788810347024</v>
+        <v>1.050016464816439</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07911874400157949</v>
+        <v>-0.07957993160412059</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06443471961896538</v>
+        <v>-0.06507534540133476</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08730869834988553</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9903989165780545</v>
+        <v>0.9888595258774223</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06759535001453716</v>
+        <v>-0.06790228374319079</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0891987624543891</v>
+        <v>-0.08977485345278516</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08931878290153678</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9382107385922088</v>
+        <v>0.936839767937556</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.005657697591355097</v>
+        <v>-0.006019721989254254</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1263818161568752</v>
+        <v>-0.1270114238053955</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08282618409964865</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9178822816406105</v>
+        <v>0.9168213927528538</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04364845138338895</v>
+        <v>0.04348790143301628</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1275749226508212</v>
+        <v>-0.1281494396300959</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07318162513728059</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8566246054778303</v>
+        <v>0.8557730611332066</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0684691589071795</v>
+        <v>0.06826138838316781</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1578275701622204</v>
+        <v>-0.1583155160898236</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06547926256764719</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7945452913337312</v>
+        <v>0.7939959586603972</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1128927005676488</v>
+        <v>0.1127652050188235</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1492774982953151</v>
+        <v>-0.1497150756110366</v>
       </c>
     </row>
   </sheetData>
